--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_64ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_64ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2277,28 +2277,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1745.779844359276</v>
+        <v>1843.17405706811</v>
       </c>
       <c r="AB2" t="n">
-        <v>2388.653001423411</v>
+        <v>2521.912059981053</v>
       </c>
       <c r="AC2" t="n">
-        <v>2160.683311463104</v>
+        <v>2281.224312502268</v>
       </c>
       <c r="AD2" t="n">
-        <v>1745779.844359276</v>
+        <v>1843174.05706811</v>
       </c>
       <c r="AE2" t="n">
-        <v>2388653.001423411</v>
+        <v>2521912.059981053</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.957487483808157e-07</v>
+        <v>1.842395885894783e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.26041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2160683.311463104</v>
+        <v>2281224.312502268</v>
       </c>
     </row>
     <row r="3">
@@ -2383,28 +2383,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>811.0693613495607</v>
+        <v>872.0473644179516</v>
       </c>
       <c r="AB3" t="n">
-        <v>1109.740882053336</v>
+        <v>1193.173676011141</v>
       </c>
       <c r="AC3" t="n">
-        <v>1003.828769801275</v>
+        <v>1079.298855002409</v>
       </c>
       <c r="AD3" t="n">
-        <v>811069.3613495607</v>
+        <v>872047.3644179516</v>
       </c>
       <c r="AE3" t="n">
-        <v>1109740.882053336</v>
+        <v>1193173.676011141</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.574804888789425e-06</v>
+        <v>2.913801350903639e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.650065104166666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1003828.769801275</v>
+        <v>1079298.85500241</v>
       </c>
     </row>
     <row r="4">
@@ -2489,28 +2489,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>638.1667729506945</v>
+        <v>686.8639240593866</v>
       </c>
       <c r="AB4" t="n">
-        <v>873.1679326821588</v>
+        <v>939.7975231957541</v>
       </c>
       <c r="AC4" t="n">
-        <v>789.8340106858633</v>
+        <v>850.1045665960588</v>
       </c>
       <c r="AD4" t="n">
-        <v>638166.7729506945</v>
+        <v>686863.9240593866</v>
       </c>
       <c r="AE4" t="n">
-        <v>873167.9326821589</v>
+        <v>939797.5231957542</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.801777716479417e-06</v>
+        <v>3.33376050689147e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.434244791666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>789834.0106858633</v>
+        <v>850104.5665960588</v>
       </c>
     </row>
     <row r="5">
@@ -2595,28 +2595,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>543.8453071037528</v>
+        <v>592.6277095584658</v>
       </c>
       <c r="AB5" t="n">
-        <v>744.1131419409809</v>
+        <v>810.8593771072256</v>
       </c>
       <c r="AC5" t="n">
-        <v>673.0960280434869</v>
+        <v>733.4720962043945</v>
       </c>
       <c r="AD5" t="n">
-        <v>543845.3071037529</v>
+        <v>592627.7095584658</v>
       </c>
       <c r="AE5" t="n">
-        <v>744113.1419409809</v>
+        <v>810859.3771072256</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.928568790112905e-06</v>
+        <v>3.568357188846005e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.879231770833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>673096.0280434869</v>
+        <v>733472.0962043945</v>
       </c>
     </row>
     <row r="6">
@@ -2701,28 +2701,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>524.3697996047705</v>
+        <v>573.1522020594831</v>
       </c>
       <c r="AB6" t="n">
-        <v>717.4658933821213</v>
+        <v>784.212128548366</v>
       </c>
       <c r="AC6" t="n">
-        <v>648.9919554874367</v>
+        <v>709.3680236483443</v>
       </c>
       <c r="AD6" t="n">
-        <v>524369.7996047705</v>
+        <v>573152.2020594832</v>
       </c>
       <c r="AE6" t="n">
-        <v>717465.8933821213</v>
+        <v>784212.128548366</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.95685869829475e-06</v>
+        <v>3.620700925688585e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.765299479166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>648991.9554874367</v>
+        <v>709368.0236483443</v>
       </c>
     </row>
   </sheetData>
@@ -2998,28 +2998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1190.708505595642</v>
+        <v>1272.96914967009</v>
       </c>
       <c r="AB2" t="n">
-        <v>1629.179907707818</v>
+        <v>1741.732550013968</v>
       </c>
       <c r="AC2" t="n">
-        <v>1473.693263884544</v>
+        <v>1575.504039977621</v>
       </c>
       <c r="AD2" t="n">
-        <v>1190708.505595641</v>
+        <v>1272969.149670091</v>
       </c>
       <c r="AE2" t="n">
-        <v>1629179.907707818</v>
+        <v>1741732.550013968</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.228765253606165e-06</v>
+        <v>2.342216211662288e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.79459635416667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1473693.263884544</v>
+        <v>1575504.039977621</v>
       </c>
     </row>
     <row r="3">
@@ -3104,28 +3104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>628.8574381264015</v>
+        <v>687.5906579354158</v>
       </c>
       <c r="AB3" t="n">
-        <v>860.4304900766942</v>
+        <v>940.7918725461733</v>
       </c>
       <c r="AC3" t="n">
-        <v>778.3122117255512</v>
+        <v>851.004016640052</v>
       </c>
       <c r="AD3" t="n">
-        <v>628857.4381264015</v>
+        <v>687590.6579354159</v>
       </c>
       <c r="AE3" t="n">
-        <v>860430.4900766943</v>
+        <v>940791.8725461733</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.77563436741831e-06</v>
+        <v>3.384633142210305e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.854166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>778312.2117255512</v>
+        <v>851004.016640052</v>
       </c>
     </row>
     <row r="4">
@@ -3210,28 +3210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>498.0824721772127</v>
+        <v>556.7303511316557</v>
       </c>
       <c r="AB4" t="n">
-        <v>681.4984122806993</v>
+        <v>761.7430276279808</v>
       </c>
       <c r="AC4" t="n">
-        <v>616.4571603016576</v>
+        <v>689.0433421842195</v>
       </c>
       <c r="AD4" t="n">
-        <v>498082.4721772127</v>
+        <v>556730.3511316556</v>
       </c>
       <c r="AE4" t="n">
-        <v>681498.4122806994</v>
+        <v>761743.0276279808</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.979816865934536e-06</v>
+        <v>3.773836496356986e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.941080729166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>616457.1603016576</v>
+        <v>689043.3421842195</v>
       </c>
     </row>
     <row r="5">
@@ -3316,28 +3316,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>487.7498620184488</v>
+        <v>534.8047105493177</v>
       </c>
       <c r="AB5" t="n">
-        <v>667.3608792188902</v>
+        <v>731.7433988922318</v>
       </c>
       <c r="AC5" t="n">
-        <v>603.6688935531154</v>
+        <v>661.9068359102669</v>
       </c>
       <c r="AD5" t="n">
-        <v>487749.8620184488</v>
+        <v>534804.7105493178</v>
       </c>
       <c r="AE5" t="n">
-        <v>667360.8792188902</v>
+        <v>731743.3988922318</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.999810138021981e-06</v>
+        <v>3.811946758565294e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.861328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>603668.8935531153</v>
+        <v>661906.8359102668</v>
       </c>
     </row>
   </sheetData>
@@ -3613,28 +3613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>434.6713807818954</v>
+        <v>486.9032523832782</v>
       </c>
       <c r="AB2" t="n">
-        <v>594.7365595337117</v>
+        <v>666.2025105662686</v>
       </c>
       <c r="AC2" t="n">
-        <v>537.9757370098173</v>
+        <v>602.6210779789193</v>
       </c>
       <c r="AD2" t="n">
-        <v>434671.3807818954</v>
+        <v>486903.2523832782</v>
       </c>
       <c r="AE2" t="n">
-        <v>594736.5595337116</v>
+        <v>666202.5105662687</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.993743494387736e-06</v>
+        <v>4.246151874523217e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.798828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>537975.7370098173</v>
+        <v>602621.0779789193</v>
       </c>
     </row>
     <row r="3">
@@ -3719,28 +3719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>422.9578172716759</v>
+        <v>475.1896888730586</v>
       </c>
       <c r="AB3" t="n">
-        <v>578.7095451730788</v>
+        <v>650.1754962056358</v>
       </c>
       <c r="AC3" t="n">
-        <v>523.4783184057071</v>
+        <v>588.1236593748093</v>
       </c>
       <c r="AD3" t="n">
-        <v>422957.8172716759</v>
+        <v>475189.6888730587</v>
       </c>
       <c r="AE3" t="n">
-        <v>578709.5451730788</v>
+        <v>650175.4962056358</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.030495023204765e-06</v>
+        <v>4.324423012920558e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.639322916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>523478.3184057071</v>
+        <v>588123.6593748094</v>
       </c>
     </row>
   </sheetData>
@@ -4016,28 +4016,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>640.5266905443084</v>
+        <v>706.1867851123671</v>
       </c>
       <c r="AB2" t="n">
-        <v>876.3968760459577</v>
+        <v>966.2359141529079</v>
       </c>
       <c r="AC2" t="n">
-        <v>792.7547882268716</v>
+        <v>874.0197146267762</v>
       </c>
       <c r="AD2" t="n">
-        <v>640526.6905443084</v>
+        <v>706186.7851123671</v>
       </c>
       <c r="AE2" t="n">
-        <v>876396.8760459577</v>
+        <v>966235.9141529079</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.685570914784506e-06</v>
+        <v>3.422291712246763e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.9560546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>792754.7882268716</v>
+        <v>874019.7146267763</v>
       </c>
     </row>
     <row r="3">
@@ -4122,28 +4122,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>445.1404432952518</v>
+        <v>488.9423761340326</v>
       </c>
       <c r="AB3" t="n">
-        <v>609.0607927269273</v>
+        <v>668.9925296418417</v>
       </c>
       <c r="AC3" t="n">
-        <v>550.93288549126</v>
+        <v>605.1448215497361</v>
       </c>
       <c r="AD3" t="n">
-        <v>445140.4432952518</v>
+        <v>488942.3761340326</v>
       </c>
       <c r="AE3" t="n">
-        <v>609060.7927269273</v>
+        <v>668992.5296418417</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.043038150015597e-06</v>
+        <v>4.148073787507316e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.214518229166666</v>
       </c>
       <c r="AH3" t="n">
-        <v>550932.88549126</v>
+        <v>605144.8215497361</v>
       </c>
     </row>
   </sheetData>
@@ -4419,28 +4419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>419.4904733869475</v>
+        <v>459.6765160834725</v>
       </c>
       <c r="AB2" t="n">
-        <v>573.9653723015771</v>
+        <v>628.9496888020426</v>
       </c>
       <c r="AC2" t="n">
-        <v>519.1869227345733</v>
+        <v>568.9236132392072</v>
       </c>
       <c r="AD2" t="n">
-        <v>419490.4733869475</v>
+        <v>459676.5160834725</v>
       </c>
       <c r="AE2" t="n">
-        <v>573965.3723015771</v>
+        <v>628949.6888020426</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.972168299910794e-06</v>
+        <v>4.391633592019268e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.23828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>519186.9227345733</v>
+        <v>568923.6132392072</v>
       </c>
     </row>
   </sheetData>
@@ -4716,28 +4716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1315.178685406929</v>
+        <v>1398.14870549948</v>
       </c>
       <c r="AB2" t="n">
-        <v>1799.485498962403</v>
+        <v>1913.008740831981</v>
       </c>
       <c r="AC2" t="n">
-        <v>1627.745128535191</v>
+        <v>1730.433871531606</v>
       </c>
       <c r="AD2" t="n">
-        <v>1315178.685406929</v>
+        <v>1398148.70549948</v>
       </c>
       <c r="AE2" t="n">
-        <v>1799485.498962403</v>
+        <v>1913008.74083198</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.166135216618203e-06</v>
+        <v>2.20488610028331e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1627745.128535191</v>
+        <v>1730433.871531606</v>
       </c>
     </row>
     <row r="3">
@@ -4822,28 +4822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>683.0641766331244</v>
+        <v>730.5731874520429</v>
       </c>
       <c r="AB3" t="n">
-        <v>934.5985411341164</v>
+        <v>999.6024656861935</v>
       </c>
       <c r="AC3" t="n">
-        <v>845.4017680855666</v>
+        <v>904.2018093119743</v>
       </c>
       <c r="AD3" t="n">
-        <v>683064.1766331244</v>
+        <v>730573.1874520429</v>
       </c>
       <c r="AE3" t="n">
-        <v>934598.5411341165</v>
+        <v>999602.4656861934</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.720343778074281e-06</v>
+        <v>3.252763513124184e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.055989583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>845401.7680855666</v>
+        <v>904201.8093119743</v>
       </c>
     </row>
     <row r="4">
@@ -4928,28 +4928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>541.3647701730755</v>
+        <v>588.7884401374222</v>
       </c>
       <c r="AB4" t="n">
-        <v>740.719161878862</v>
+        <v>805.606319308741</v>
       </c>
       <c r="AC4" t="n">
-        <v>670.0259646750158</v>
+        <v>728.7203828694848</v>
       </c>
       <c r="AD4" t="n">
-        <v>541364.7701730755</v>
+        <v>588788.4401374222</v>
       </c>
       <c r="AE4" t="n">
-        <v>740719.161878862</v>
+        <v>805606.319308741</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.933221125341693e-06</v>
+        <v>3.655264267210212e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.058268229166666</v>
       </c>
       <c r="AH4" t="n">
-        <v>670025.9646750158</v>
+        <v>728720.3828694847</v>
       </c>
     </row>
     <row r="5">
@@ -5034,28 +5034,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>496.4753466929387</v>
+        <v>543.9842680033061</v>
       </c>
       <c r="AB5" t="n">
-        <v>679.2994722917433</v>
+        <v>744.3032743742716</v>
       </c>
       <c r="AC5" t="n">
-        <v>614.4680840590157</v>
+        <v>673.268014504197</v>
       </c>
       <c r="AD5" t="n">
-        <v>496475.3466929386</v>
+        <v>543984.268003306</v>
       </c>
       <c r="AE5" t="n">
-        <v>679299.4722917433</v>
+        <v>744303.2743742716</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.989120572645726e-06</v>
+        <v>3.760956911268773e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.83203125</v>
       </c>
       <c r="AH5" t="n">
-        <v>614468.0840590157</v>
+        <v>673268.0145041971</v>
       </c>
     </row>
   </sheetData>
@@ -5331,28 +5331,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>417.3719941976191</v>
+        <v>466.3699391216128</v>
       </c>
       <c r="AB2" t="n">
-        <v>571.0667756140324</v>
+        <v>638.10792549581</v>
       </c>
       <c r="AC2" t="n">
-        <v>516.5649640466818</v>
+        <v>577.2078006765873</v>
       </c>
       <c r="AD2" t="n">
-        <v>417371.9941976191</v>
+        <v>466369.9391216129</v>
       </c>
       <c r="AE2" t="n">
-        <v>571066.7756140324</v>
+        <v>638107.92549581</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.909571878290967e-06</v>
+        <v>4.377820991437757e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.763997395833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>516564.9640466818</v>
+        <v>577207.8006765874</v>
       </c>
     </row>
   </sheetData>
@@ -5628,28 +5628,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>894.0319918834682</v>
+        <v>962.233143682818</v>
       </c>
       <c r="AB2" t="n">
-        <v>1223.254013202773</v>
+        <v>1316.569837917109</v>
       </c>
       <c r="AC2" t="n">
-        <v>1106.50836703049</v>
+        <v>1190.918260403673</v>
       </c>
       <c r="AD2" t="n">
-        <v>894031.9918834682</v>
+        <v>962233.1436828179</v>
       </c>
       <c r="AE2" t="n">
-        <v>1223254.013202773</v>
+        <v>1316569.837917109</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.43557973766083e-06</v>
+        <v>2.81371644619774e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.28255208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1106508.36703049</v>
+        <v>1190918.260403673</v>
       </c>
     </row>
     <row r="3">
@@ -5734,28 +5734,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>511.5807264535126</v>
+        <v>557.0766377741198</v>
       </c>
       <c r="AB3" t="n">
-        <v>699.9673192824832</v>
+        <v>762.216832289289</v>
       </c>
       <c r="AC3" t="n">
-        <v>633.163420740465</v>
+        <v>689.4719275936415</v>
       </c>
       <c r="AD3" t="n">
-        <v>511580.7264535126</v>
+        <v>557076.6377741199</v>
       </c>
       <c r="AE3" t="n">
-        <v>699967.3192824832</v>
+        <v>762216.832289289</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.94807354391019e-06</v>
+        <v>3.818197223815815e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.313802083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>633163.4207404649</v>
+        <v>689471.9275936414</v>
       </c>
     </row>
     <row r="4">
@@ -5840,28 +5840,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>473.3268611977594</v>
+        <v>518.8227725183668</v>
       </c>
       <c r="AB4" t="n">
-        <v>647.6266931981345</v>
+        <v>709.8762062049403</v>
       </c>
       <c r="AC4" t="n">
-        <v>585.8181105490764</v>
+        <v>642.1266174022528</v>
       </c>
       <c r="AD4" t="n">
-        <v>473326.8611977594</v>
+        <v>518822.7725183668</v>
       </c>
       <c r="AE4" t="n">
-        <v>647626.6931981345</v>
+        <v>709876.2062049403</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.023803211202571e-06</v>
+        <v>3.966626325129865e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.0029296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>585818.1105490765</v>
+        <v>642126.6174022529</v>
       </c>
     </row>
   </sheetData>
@@ -6137,28 +6137,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1086.735516751556</v>
+        <v>1156.525529001563</v>
       </c>
       <c r="AB2" t="n">
-        <v>1486.919477406803</v>
+        <v>1582.409251085304</v>
       </c>
       <c r="AC2" t="n">
-        <v>1345.009969387691</v>
+        <v>1431.386333087055</v>
       </c>
       <c r="AD2" t="n">
-        <v>1086735.516751556</v>
+        <v>1156525.529001563</v>
       </c>
       <c r="AE2" t="n">
-        <v>1486919.477406804</v>
+        <v>1582409.251085304</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.294940892389743e-06</v>
+        <v>2.489786843818654e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.255859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1345009.969387691</v>
+        <v>1431386.333087055</v>
       </c>
     </row>
     <row r="3">
@@ -6243,28 +6243,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>590.2218885494088</v>
+        <v>648.3659340248599</v>
       </c>
       <c r="AB3" t="n">
-        <v>807.5676266653019</v>
+        <v>887.1228748190624</v>
       </c>
       <c r="AC3" t="n">
-        <v>730.4945058046474</v>
+        <v>802.4571127311052</v>
       </c>
       <c r="AD3" t="n">
-        <v>590221.8885494089</v>
+        <v>648365.9340248599</v>
       </c>
       <c r="AE3" t="n">
-        <v>807567.6266653019</v>
+        <v>887122.8748190624</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.828966287135516e-06</v>
+        <v>3.516559115755615e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.6767578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>730494.5058046473</v>
+        <v>802457.1127311052</v>
       </c>
     </row>
     <row r="4">
@@ -6349,28 +6349,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>479.7784304861875</v>
+        <v>526.3619395502058</v>
       </c>
       <c r="AB4" t="n">
-        <v>656.454014921711</v>
+        <v>720.1916271424777</v>
       </c>
       <c r="AC4" t="n">
-        <v>593.8029650765786</v>
+        <v>651.457549043296</v>
       </c>
       <c r="AD4" t="n">
-        <v>479778.4304861875</v>
+        <v>526361.9395502057</v>
       </c>
       <c r="AE4" t="n">
-        <v>656454.0149217109</v>
+        <v>720191.6271424778</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.004082155122263e-06</v>
+        <v>3.853254934707374e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.918294270833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>593802.9650765787</v>
+        <v>651457.549043296</v>
       </c>
     </row>
     <row r="5">
@@ -6455,28 +6455,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>479.0104161263498</v>
+        <v>525.5939251903681</v>
       </c>
       <c r="AB5" t="n">
-        <v>655.4031837921789</v>
+        <v>719.1407960129454</v>
       </c>
       <c r="AC5" t="n">
-        <v>592.8524237951983</v>
+        <v>650.5070077619157</v>
       </c>
       <c r="AD5" t="n">
-        <v>479010.4161263498</v>
+        <v>525593.9251903681</v>
       </c>
       <c r="AE5" t="n">
-        <v>655403.1837921789</v>
+        <v>719140.7960129455</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.009932351157454e-06</v>
+        <v>3.864503124650082e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.8955078125</v>
       </c>
       <c r="AH5" t="n">
-        <v>592852.4237951983</v>
+        <v>650507.0077619157</v>
       </c>
     </row>
   </sheetData>
@@ -6752,28 +6752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1582.893927732173</v>
+        <v>1679.551430392558</v>
       </c>
       <c r="AB2" t="n">
-        <v>2165.785304274731</v>
+        <v>2298.036363642732</v>
       </c>
       <c r="AC2" t="n">
-        <v>1959.085794533515</v>
+        <v>2078.714998410962</v>
       </c>
       <c r="AD2" t="n">
-        <v>1582893.927732173</v>
+        <v>1679551.430392558</v>
       </c>
       <c r="AE2" t="n">
-        <v>2165785.30427473</v>
+        <v>2298036.363642732</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.050859114511299e-06</v>
+        <v>1.957670826428339e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.57682291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1959085.794533515</v>
+        <v>2078714.998410963</v>
       </c>
     </row>
     <row r="3">
@@ -6858,28 +6858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>766.0786339292588</v>
+        <v>826.3723189255144</v>
       </c>
       <c r="AB3" t="n">
-        <v>1048.182583946069</v>
+        <v>1130.679063727596</v>
       </c>
       <c r="AC3" t="n">
-        <v>948.1455092677514</v>
+        <v>1022.768640803467</v>
       </c>
       <c r="AD3" t="n">
-        <v>766078.6339292588</v>
+        <v>826372.3189255144</v>
       </c>
       <c r="AE3" t="n">
-        <v>1048182.583946069</v>
+        <v>1130679.063727596</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.622686087444369e-06</v>
+        <v>3.022941105971469e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.440104166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>948145.5092677515</v>
+        <v>1022768.640803467</v>
       </c>
     </row>
     <row r="4">
@@ -6964,28 +6964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>604.7570676424996</v>
+        <v>653.0432380539571</v>
       </c>
       <c r="AB4" t="n">
-        <v>827.4552999473132</v>
+        <v>893.5225685397636</v>
       </c>
       <c r="AC4" t="n">
-        <v>748.4841274611483</v>
+        <v>808.2460286651291</v>
       </c>
       <c r="AD4" t="n">
-        <v>604757.0676424996</v>
+        <v>653043.2380539571</v>
       </c>
       <c r="AE4" t="n">
-        <v>827455.2999473131</v>
+        <v>893522.5685397636</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.845261925328949e-06</v>
+        <v>3.437583010369017e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.30078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>748484.1274611483</v>
+        <v>808246.0286651291</v>
       </c>
     </row>
     <row r="5">
@@ -7070,28 +7070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>520.6278693230025</v>
+        <v>568.9992910804807</v>
       </c>
       <c r="AB5" t="n">
-        <v>712.3460192882934</v>
+        <v>778.5299325333931</v>
       </c>
       <c r="AC5" t="n">
-        <v>644.3607149913354</v>
+        <v>704.2281284460283</v>
       </c>
       <c r="AD5" t="n">
-        <v>520627.8693230025</v>
+        <v>568999.2910804807</v>
       </c>
       <c r="AE5" t="n">
-        <v>712346.0192882934</v>
+        <v>778529.9325333931</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.958855598194356e-06</v>
+        <v>3.649199407243368e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.819010416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>644360.7149913354</v>
+        <v>704228.1284460283</v>
       </c>
     </row>
     <row r="6">
@@ -7176,28 +7176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>516.3527817187468</v>
+        <v>564.7242034762251</v>
       </c>
       <c r="AB6" t="n">
-        <v>706.4966558245967</v>
+        <v>772.6805690696963</v>
       </c>
       <c r="AC6" t="n">
-        <v>639.0696065669806</v>
+        <v>698.9370200216737</v>
       </c>
       <c r="AD6" t="n">
-        <v>516352.7817187468</v>
+        <v>564724.203476225</v>
       </c>
       <c r="AE6" t="n">
-        <v>706496.6558245966</v>
+        <v>772680.5690696962</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.96544346654612e-06</v>
+        <v>3.661472106316446e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.79296875</v>
       </c>
       <c r="AH6" t="n">
-        <v>639069.6065669806</v>
+        <v>698937.0200216736</v>
       </c>
     </row>
   </sheetData>
@@ -7473,28 +7473,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>724.451363552596</v>
+        <v>779.9685296521207</v>
       </c>
       <c r="AB2" t="n">
-        <v>991.226316151161</v>
+        <v>1067.18735205304</v>
       </c>
       <c r="AC2" t="n">
-        <v>896.6250677325658</v>
+        <v>965.3364889799527</v>
       </c>
       <c r="AD2" t="n">
-        <v>724451.3635525961</v>
+        <v>779968.5296521207</v>
       </c>
       <c r="AE2" t="n">
-        <v>991226.316151161</v>
+        <v>1067187.35205304</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.595648224004269e-06</v>
+        <v>3.198472644470134e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.3857421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>896625.0677325658</v>
+        <v>965336.4889799528</v>
       </c>
     </row>
     <row r="3">
@@ -7579,28 +7579,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>455.6816941315864</v>
+        <v>500.078376742002</v>
       </c>
       <c r="AB3" t="n">
-        <v>623.4837971683658</v>
+        <v>684.229296959339</v>
       </c>
       <c r="AC3" t="n">
-        <v>563.9793786316214</v>
+        <v>618.9274131793886</v>
       </c>
       <c r="AD3" t="n">
-        <v>455681.6941315864</v>
+        <v>500078.376742002</v>
       </c>
       <c r="AE3" t="n">
-        <v>623483.7971683658</v>
+        <v>684229.2969593389</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.034879109555214e-06</v>
+        <v>4.078909792775659e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.14453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>563979.3786316215</v>
+        <v>618927.4131793886</v>
       </c>
     </row>
     <row r="4">
@@ -7685,28 +7685,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>455.2626001623741</v>
+        <v>499.6592827727897</v>
       </c>
       <c r="AB4" t="n">
-        <v>622.9103743105684</v>
+        <v>683.6558741015417</v>
       </c>
       <c r="AC4" t="n">
-        <v>563.4606824465683</v>
+        <v>618.4087169943355</v>
       </c>
       <c r="AD4" t="n">
-        <v>455262.6001623741</v>
+        <v>499659.2827727897</v>
       </c>
       <c r="AE4" t="n">
-        <v>622910.3743105684</v>
+        <v>683655.8741015417</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.042820697193827e-06</v>
+        <v>4.094828684191475e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.111979166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>563460.6824465683</v>
+        <v>618408.7169943354</v>
       </c>
     </row>
   </sheetData>
@@ -7982,28 +7982,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>502.2257722935071</v>
+        <v>544.8068578295463</v>
       </c>
       <c r="AB2" t="n">
-        <v>687.1674582893138</v>
+        <v>745.4287780646356</v>
       </c>
       <c r="AC2" t="n">
-        <v>621.585160515766</v>
+        <v>674.2861017020068</v>
       </c>
       <c r="AD2" t="n">
-        <v>502225.7722935071</v>
+        <v>544806.8578295463</v>
       </c>
       <c r="AE2" t="n">
-        <v>687167.4582893138</v>
+        <v>745428.7780646356</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.893872619952028e-06</v>
+        <v>3.962099959788238e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.114583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>621585.160515766</v>
+        <v>674286.1017020068</v>
       </c>
     </row>
     <row r="3">
@@ -8088,28 +8088,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>430.9771349821175</v>
+        <v>473.472879663585</v>
       </c>
       <c r="AB3" t="n">
-        <v>589.6819294518332</v>
+        <v>647.8264821049572</v>
       </c>
       <c r="AC3" t="n">
-        <v>533.4035137287354</v>
+        <v>585.9988318830375</v>
       </c>
       <c r="AD3" t="n">
-        <v>430977.1349821175</v>
+        <v>473472.879663585</v>
       </c>
       <c r="AE3" t="n">
-        <v>589681.9294518331</v>
+        <v>647826.4821049572</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.038323228025874e-06</v>
+        <v>4.264299665518853e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.468424479166666</v>
       </c>
       <c r="AH3" t="n">
-        <v>533403.5137287355</v>
+        <v>585998.8318830375</v>
       </c>
     </row>
   </sheetData>
@@ -13990,28 +13990,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>414.0411010391155</v>
+        <v>465.2826861990139</v>
       </c>
       <c r="AB2" t="n">
-        <v>566.5093006459326</v>
+        <v>636.6202980808964</v>
       </c>
       <c r="AC2" t="n">
-        <v>512.4424480930812</v>
+        <v>575.8621503342549</v>
       </c>
       <c r="AD2" t="n">
-        <v>414041.1010391155</v>
+        <v>465282.6861990139</v>
       </c>
       <c r="AE2" t="n">
-        <v>566509.3006459327</v>
+        <v>636620.2980808964</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.008823485656153e-06</v>
+        <v>4.366892524917524e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.889973958333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>512442.4480930812</v>
+        <v>575862.150334255</v>
       </c>
     </row>
     <row r="3">
@@ -14096,28 +14096,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>417.4621086278077</v>
+        <v>468.7036937877061</v>
       </c>
       <c r="AB3" t="n">
-        <v>571.1900741529845</v>
+        <v>641.3010715879482</v>
       </c>
       <c r="AC3" t="n">
-        <v>516.676495146127</v>
+        <v>580.0961973873004</v>
       </c>
       <c r="AD3" t="n">
-        <v>417462.1086278077</v>
+        <v>468703.6937877061</v>
       </c>
       <c r="AE3" t="n">
-        <v>571190.0741529845</v>
+        <v>641301.0715879481</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.008384638362727e-06</v>
+        <v>4.365938534196625e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.8916015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>516676.495146127</v>
+        <v>580096.1973873004</v>
       </c>
     </row>
   </sheetData>
@@ -14393,28 +14393,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>429.758062833777</v>
+        <v>486.7469860254489</v>
       </c>
       <c r="AB2" t="n">
-        <v>588.0139411568064</v>
+        <v>665.9887000415015</v>
       </c>
       <c r="AC2" t="n">
-        <v>531.8947158955499</v>
+        <v>602.4276732305509</v>
       </c>
       <c r="AD2" t="n">
-        <v>429758.062833777</v>
+        <v>486746.9860254489</v>
       </c>
       <c r="AE2" t="n">
-        <v>588013.9411568064</v>
+        <v>665988.7000415014</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.795399114396635e-06</v>
+        <v>4.27040520387783e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.67545572916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>531894.7158955499</v>
+        <v>602427.673230551</v>
       </c>
     </row>
   </sheetData>
@@ -14690,28 +14690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>983.5417909975318</v>
+        <v>1052.681328804453</v>
       </c>
       <c r="AB2" t="n">
-        <v>1345.725269244273</v>
+        <v>1440.325035092837</v>
       </c>
       <c r="AC2" t="n">
-        <v>1217.291138284877</v>
+        <v>1302.86243525246</v>
       </c>
       <c r="AD2" t="n">
-        <v>983541.7909975318</v>
+        <v>1052681.328804453</v>
       </c>
       <c r="AE2" t="n">
-        <v>1345725.269244273</v>
+        <v>1440325.035092837</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.361340937590154e-06</v>
+        <v>2.641788539432477e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.77408854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1217291.138284877</v>
+        <v>1302862.435252459</v>
       </c>
     </row>
     <row r="3">
@@ -14796,28 +14796,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>551.6003659359545</v>
+        <v>597.7787319951406</v>
       </c>
       <c r="AB3" t="n">
-        <v>754.7239555642487</v>
+        <v>817.9072332521557</v>
       </c>
       <c r="AC3" t="n">
-        <v>682.6941605069204</v>
+        <v>739.8473148505808</v>
       </c>
       <c r="AD3" t="n">
-        <v>551600.3659359545</v>
+        <v>597778.7319951406</v>
       </c>
       <c r="AE3" t="n">
-        <v>754723.9555642487</v>
+        <v>817907.2332521557</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.885335087540763e-06</v>
+        <v>3.658640161128094e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.5009765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>682694.1605069204</v>
+        <v>739847.3148505808</v>
       </c>
     </row>
     <row r="4">
@@ -14902,28 +14902,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>470.0019741981955</v>
+        <v>527.4475739948201</v>
       </c>
       <c r="AB4" t="n">
-        <v>643.0774361216691</v>
+        <v>721.6770400844105</v>
       </c>
       <c r="AC4" t="n">
-        <v>581.7030281830665</v>
+        <v>652.8011962588408</v>
       </c>
       <c r="AD4" t="n">
-        <v>470001.9741981955</v>
+        <v>527447.5739948201</v>
       </c>
       <c r="AE4" t="n">
-        <v>643077.436121669</v>
+        <v>721677.0400844105</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.016899865652774e-06</v>
+        <v>3.913951900760745e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.947591145833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>581703.0281830665</v>
+        <v>652801.1962588408</v>
       </c>
     </row>
     <row r="5">
@@ -15008,28 +15008,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>472.2922289910531</v>
+        <v>529.7378287876777</v>
       </c>
       <c r="AB5" t="n">
-        <v>646.2110637681673</v>
+        <v>724.8106677309087</v>
       </c>
       <c r="AC5" t="n">
-        <v>584.5375868050569</v>
+        <v>655.6357548808313</v>
       </c>
       <c r="AD5" t="n">
-        <v>472292.2289910531</v>
+        <v>529737.8287876777</v>
       </c>
       <c r="AE5" t="n">
-        <v>646211.0637681673</v>
+        <v>724810.6677309087</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.016801389022451e-06</v>
+        <v>3.913760799159225e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.947591145833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>584537.5868050569</v>
+        <v>655635.7548808313</v>
       </c>
     </row>
   </sheetData>
@@ -15305,28 +15305,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1435.426454388342</v>
+        <v>1531.150418312195</v>
       </c>
       <c r="AB2" t="n">
-        <v>1964.013801439935</v>
+        <v>2094.98755192379</v>
       </c>
       <c r="AC2" t="n">
-        <v>1776.571080741189</v>
+        <v>1895.044880301679</v>
       </c>
       <c r="AD2" t="n">
-        <v>1435426.454388342</v>
+        <v>1531150.418312195</v>
       </c>
       <c r="AE2" t="n">
-        <v>1964013.801439935</v>
+        <v>2094987.55192379</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.107806736074736e-06</v>
+        <v>2.078679951075112e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.94205729166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1776571.080741189</v>
+        <v>1895044.880301679</v>
       </c>
     </row>
     <row r="3">
@@ -15411,28 +15411,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>722.8750803437764</v>
+        <v>770.8224926688254</v>
       </c>
       <c r="AB3" t="n">
-        <v>989.0695759241466</v>
+        <v>1054.673340757821</v>
       </c>
       <c r="AC3" t="n">
-        <v>894.6741637658137</v>
+        <v>954.016797359224</v>
       </c>
       <c r="AD3" t="n">
-        <v>722875.0803437764</v>
+        <v>770822.4926688253</v>
       </c>
       <c r="AE3" t="n">
-        <v>989069.5759241467</v>
+        <v>1054673.340757821</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.671958787296622e-06</v>
+        <v>3.137250476100086e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.23828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>894674.1637658137</v>
+        <v>954016.7973592241</v>
       </c>
     </row>
     <row r="4">
@@ -15517,28 +15517,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>573.5025572188714</v>
+        <v>621.3646286893487</v>
       </c>
       <c r="AB4" t="n">
-        <v>784.6914999340197</v>
+        <v>850.1784976454961</v>
       </c>
       <c r="AC4" t="n">
-        <v>709.8016445017533</v>
+        <v>769.038655063225</v>
       </c>
       <c r="AD4" t="n">
-        <v>573502.5572188714</v>
+        <v>621364.6286893487</v>
       </c>
       <c r="AE4" t="n">
-        <v>784691.4999340198</v>
+        <v>850178.4976454962</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.888035191103559e-06</v>
+        <v>3.542694561126472e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.180338541666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>709801.6445017534</v>
+        <v>769038.655063225</v>
       </c>
     </row>
     <row r="5">
@@ -15623,28 +15623,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>505.1832648591239</v>
+        <v>553.1305876756218</v>
       </c>
       <c r="AB5" t="n">
-        <v>691.2140300929543</v>
+        <v>756.81767245708</v>
       </c>
       <c r="AC5" t="n">
-        <v>625.2455331858662</v>
+        <v>684.58805599805</v>
       </c>
       <c r="AD5" t="n">
-        <v>505183.2648591239</v>
+        <v>553130.5876756217</v>
       </c>
       <c r="AE5" t="n">
-        <v>691214.0300929543</v>
+        <v>756817.67245708</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.978185645041455e-06</v>
+        <v>3.711852172358385e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.8076171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>625245.5331858662</v>
+        <v>684588.05599805</v>
       </c>
     </row>
     <row r="6">
@@ -15729,28 +15729,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>507.1943689700971</v>
+        <v>555.1416917865949</v>
       </c>
       <c r="AB6" t="n">
-        <v>693.9657114612393</v>
+        <v>759.5693538253649</v>
       </c>
       <c r="AC6" t="n">
-        <v>627.7345979463711</v>
+        <v>687.0771207585549</v>
       </c>
       <c r="AD6" t="n">
-        <v>507194.368970097</v>
+        <v>555141.6917865949</v>
       </c>
       <c r="AE6" t="n">
-        <v>693965.7114612393</v>
+        <v>759569.353825365</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.977521378538754e-06</v>
+        <v>3.710605747854571e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.810872395833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>627734.5979463711</v>
+        <v>687077.1207585549</v>
       </c>
     </row>
   </sheetData>
@@ -16026,28 +16026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>466.2223228395932</v>
+        <v>530.2583327276553</v>
       </c>
       <c r="AB2" t="n">
-        <v>637.9059503863798</v>
+        <v>725.5228441845993</v>
       </c>
       <c r="AC2" t="n">
-        <v>577.0251017881275</v>
+        <v>656.2799622133276</v>
       </c>
       <c r="AD2" t="n">
-        <v>466222.3228395932</v>
+        <v>530258.3327276553</v>
       </c>
       <c r="AE2" t="n">
-        <v>637905.9503863798</v>
+        <v>725522.8441845994</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.565764660590072e-06</v>
+        <v>3.915858590988979e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.67578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>577025.1017881274</v>
+        <v>656279.9622133276</v>
       </c>
     </row>
   </sheetData>
@@ -16323,28 +16323,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>570.4579174103691</v>
+        <v>624.5276522820836</v>
       </c>
       <c r="AB2" t="n">
-        <v>780.5256894279984</v>
+        <v>854.5062860678286</v>
       </c>
       <c r="AC2" t="n">
-        <v>706.0334131036748</v>
+        <v>772.9534054326192</v>
       </c>
       <c r="AD2" t="n">
-        <v>570457.917410369</v>
+        <v>624527.6522820836</v>
       </c>
       <c r="AE2" t="n">
-        <v>780525.6894279984</v>
+        <v>854506.2860678285</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.783912538633217e-06</v>
+        <v>3.673581581538753e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.5361328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>706033.4131036748</v>
+        <v>772953.4054326192</v>
       </c>
     </row>
     <row r="3">
@@ -16429,28 +16429,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>437.7568458265669</v>
+        <v>480.927382377918</v>
       </c>
       <c r="AB3" t="n">
-        <v>598.958228928942</v>
+        <v>658.0260615881568</v>
       </c>
       <c r="AC3" t="n">
-        <v>541.7944962031171</v>
+        <v>595.2249778155604</v>
       </c>
       <c r="AD3" t="n">
-        <v>437756.8458265669</v>
+        <v>480927.382377918</v>
       </c>
       <c r="AE3" t="n">
-        <v>598958.228928942</v>
+        <v>658026.0615881569</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.043833476214845e-06</v>
+        <v>4.208832468719424e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.323567708333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>541794.4962031171</v>
+        <v>595224.9778155603</v>
       </c>
     </row>
   </sheetData>
@@ -16726,28 +16726,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>801.8795861939168</v>
+        <v>869.3620893119864</v>
       </c>
       <c r="AB2" t="n">
-        <v>1097.167026261117</v>
+        <v>1189.499564145183</v>
       </c>
       <c r="AC2" t="n">
-        <v>992.4549451583483</v>
+        <v>1075.97539521629</v>
       </c>
       <c r="AD2" t="n">
-        <v>801879.5861939167</v>
+        <v>869362.0893119865</v>
       </c>
       <c r="AE2" t="n">
-        <v>1097167.026261117</v>
+        <v>1189499.564145183</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.51185301900537e-06</v>
+        <v>2.995259180604339e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>992454.9451583483</v>
+        <v>1075975.39521629</v>
       </c>
     </row>
     <row r="3">
@@ -16832,28 +16832,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>475.2109674891456</v>
+        <v>520.1709454582192</v>
       </c>
       <c r="AB3" t="n">
-        <v>650.204610546912</v>
+        <v>711.7208358984386</v>
       </c>
       <c r="AC3" t="n">
-        <v>588.1499950842166</v>
+        <v>643.7951982267579</v>
       </c>
       <c r="AD3" t="n">
-        <v>475210.9674891456</v>
+        <v>520170.9454582192</v>
       </c>
       <c r="AE3" t="n">
-        <v>650204.6105469121</v>
+        <v>711720.8358984386</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.006211347283132e-06</v>
+        <v>3.974674046115761e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.1640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>588149.9950842166</v>
+        <v>643795.1982267578</v>
       </c>
     </row>
     <row r="4">
@@ -16938,28 +16938,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>463.6440559036693</v>
+        <v>508.6040338727429</v>
       </c>
       <c r="AB4" t="n">
-        <v>634.3782518195393</v>
+        <v>695.8944771710658</v>
       </c>
       <c r="AC4" t="n">
-        <v>573.8340818213502</v>
+        <v>629.4792849638914</v>
       </c>
       <c r="AD4" t="n">
-        <v>463644.0559036693</v>
+        <v>508604.0338727429</v>
       </c>
       <c r="AE4" t="n">
-        <v>634378.2518195392</v>
+        <v>695894.4771710658</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.034788136461004e-06</v>
+        <v>4.031289926800729e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.048502604166666</v>
       </c>
       <c r="AH4" t="n">
-        <v>573834.0818213501</v>
+        <v>629479.2849638914</v>
       </c>
     </row>
   </sheetData>
